--- a/Annotations/New/TheNameOfTheWind.xlsx
+++ b/Annotations/New/TheNameOfTheWind.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17676" windowHeight="8160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17676" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="namewind" sheetId="1" r:id="rId1"/>
@@ -1853,15 +1853,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P310"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="54.5546875" style="2" customWidth="1"/>
@@ -1927,7 +1927,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>4.0667081714555131E-2</v>
+        <v>0.75435537117503049</v>
       </c>
       <c r="B2" s="2">
         <v>135</v>
@@ -1951,7 +1951,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96303000570033503</v>
+        <v>1.3226059793347344E-2</v>
       </c>
       <c r="B3" s="2">
         <v>56</v>
@@ -1984,7 +1984,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13014679318337563</v>
+        <v>0.83302950120780606</v>
       </c>
       <c r="B4" s="2">
         <v>319</v>
@@ -2011,7 +2011,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99511268009670839</v>
+        <v>0.28170107865509919</v>
       </c>
       <c r="B5" s="2">
         <v>224</v>
@@ -2035,7 +2035,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72336445388240123</v>
+        <v>0.30882681984806215</v>
       </c>
       <c r="B6" s="2">
         <v>149</v>
@@ -2056,7 +2056,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30891904629269196</v>
+        <v>0.72331095253309419</v>
       </c>
       <c r="B7" s="2">
         <v>317</v>
@@ -2077,7 +2077,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46446495939599819</v>
+        <v>2.6210527270939865E-2</v>
       </c>
       <c r="B8" s="2">
         <v>211</v>
@@ -2101,7 +2101,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46072784233871034</v>
+        <v>0.15689582681558967</v>
       </c>
       <c r="B9" s="2">
         <v>252</v>
@@ -2125,7 +2125,7 @@
     <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75177521734342911</v>
+        <v>0.53745970133783971</v>
       </c>
       <c r="B10" s="2">
         <v>261</v>
@@ -2149,7 +2149,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41057308781161406</v>
+        <v>0.98558274023335002</v>
       </c>
       <c r="B11" s="2">
         <v>307</v>
@@ -2170,7 +2170,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86445527533652167</v>
+        <v>0.16135162267441028</v>
       </c>
       <c r="B12" s="2">
         <v>325</v>
@@ -2194,7 +2194,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60065877133779366</v>
+        <v>0.38066489998228048</v>
       </c>
       <c r="B13" s="2">
         <v>324</v>
@@ -2218,7 +2218,7 @@
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13098684849842923</v>
+        <v>0.69286556396835763</v>
       </c>
       <c r="B14" s="2">
         <v>201</v>
@@ -2242,7 +2242,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90678967085036533</v>
+        <v>0.78205533934974014</v>
       </c>
       <c r="B15" s="2">
         <v>71</v>
@@ -2266,7 +2266,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44010395400296398</v>
+        <v>0.91384942883380449</v>
       </c>
       <c r="B16" s="2">
         <v>57</v>
@@ -2287,7 +2287,7 @@
     <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91808861019306742</v>
+        <v>0.66933543116636673</v>
       </c>
       <c r="B17" s="2">
         <v>127</v>
@@ -2311,7 +2311,7 @@
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45569513591291988</v>
+        <v>0.1956184036296803</v>
       </c>
       <c r="B18" s="2">
         <v>171</v>
@@ -2338,7 +2338,7 @@
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78914488540254102</v>
+        <v>3.0597606494546015E-2</v>
       </c>
       <c r="B19" s="2">
         <v>271</v>
@@ -2359,7 +2359,7 @@
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18674550411983959</v>
+        <v>0.58037110064118991</v>
       </c>
       <c r="B20" s="2">
         <v>110</v>
@@ -2383,7 +2383,7 @@
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18076269189587635</v>
+        <v>0.33922251722227859</v>
       </c>
       <c r="B21" s="2">
         <v>157</v>
@@ -2410,7 +2410,7 @@
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48067146781071413</v>
+        <v>0.21838795239155584</v>
       </c>
       <c r="B22" s="2">
         <v>145</v>
@@ -2437,7 +2437,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30622597900031068</v>
+        <v>0.89242490335771529</v>
       </c>
       <c r="B23" s="2">
         <v>328</v>
@@ -2458,7 +2458,7 @@
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44591617825892171</v>
+        <v>0.65275005114862505</v>
       </c>
       <c r="B24" s="2">
         <v>226</v>
@@ -2482,7 +2482,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58611319649858573</v>
+        <v>0.61668361175698905</v>
       </c>
       <c r="B25" s="2">
         <v>41</v>
@@ -2503,7 +2503,7 @@
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62559609772626446</v>
+        <v>0.63001762032689035</v>
       </c>
       <c r="B26" s="2">
         <v>107</v>
@@ -2524,7 +2524,7 @@
     <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44485734563843093</v>
+        <v>0.92409107894905851</v>
       </c>
       <c r="B27" s="2">
         <v>313</v>
@@ -2545,7 +2545,7 @@
     <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96899035722237248</v>
+        <v>0.51767218708185658</v>
       </c>
       <c r="B28" s="2">
         <v>112</v>
@@ -2569,7 +2569,7 @@
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8893967990444932</v>
+        <v>0.23627105618718858</v>
       </c>
       <c r="B29" s="2">
         <v>33</v>
@@ -2596,7 +2596,7 @@
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23277165219301033</v>
+        <v>4.8579242453338445E-2</v>
       </c>
       <c r="B30" s="2">
         <v>50</v>
@@ -2620,7 +2620,7 @@
     <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93672032011040229</v>
+        <v>0.18471599986605314</v>
       </c>
       <c r="B31" s="2">
         <v>97</v>
@@ -2644,7 +2644,7 @@
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77558948191128785</v>
+        <v>0.30619221860969137</v>
       </c>
       <c r="B32" s="2">
         <v>172</v>
@@ -2665,7 +2665,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53087479862402287</v>
+        <v>0.93292435242711624</v>
       </c>
       <c r="B33" s="2">
         <v>248</v>
@@ -2689,7 +2689,7 @@
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.298407217526791</v>
+        <v>0.46906323910713721</v>
       </c>
       <c r="B34" s="2">
         <v>249</v>
@@ -2710,7 +2710,7 @@
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39112787776980518</v>
+        <v>0.73497579100015453</v>
       </c>
       <c r="B35" s="2">
         <v>105</v>
@@ -2734,7 +2734,7 @@
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88346671140241395</v>
+        <v>0.40904706799246693</v>
       </c>
       <c r="B36" s="2">
         <v>233</v>
@@ -2758,7 +2758,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30323560022568907</v>
+        <v>0.85942429464002312</v>
       </c>
       <c r="B37" s="2">
         <v>129</v>
@@ -2782,7 +2782,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9609600485654376</v>
+        <v>0.28376567882542403</v>
       </c>
       <c r="B38" s="2">
         <v>83</v>
@@ -2809,7 +2809,7 @@
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24521282039252101</v>
+        <v>0.95465527796132654</v>
       </c>
       <c r="B39" s="2">
         <v>187</v>
@@ -2830,7 +2830,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80451415095292567</v>
+        <v>0.58514749790674225</v>
       </c>
       <c r="B40" s="2">
         <v>283</v>
@@ -2851,7 +2851,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39343135769267967</v>
+        <v>0.41237910280022128</v>
       </c>
       <c r="B41" s="2">
         <v>62</v>
@@ -2872,7 +2872,7 @@
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46269295817769418</v>
+        <v>0.35698432634100719</v>
       </c>
       <c r="B42" s="2">
         <v>72</v>
@@ -2896,7 +2896,7 @@
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79474222948676421</v>
+        <v>0.30061316542623873</v>
       </c>
       <c r="B43" s="2">
         <v>306</v>
@@ -2920,7 +2920,7 @@
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76859720735366432</v>
+        <v>0.14092049415277497</v>
       </c>
       <c r="B44" s="2">
         <v>292</v>
@@ -2941,7 +2941,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47890884100834574</v>
+        <v>0.31207090705795115</v>
       </c>
       <c r="B45" s="2">
         <v>40</v>
@@ -2962,7 +2962,7 @@
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82299994378621566</v>
+        <v>0.2811873646591716</v>
       </c>
       <c r="B46" s="2">
         <v>331</v>
@@ -2986,7 +2986,7 @@
     <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32025171454988466</v>
+        <v>0.16163218249440647</v>
       </c>
       <c r="B47" s="2">
         <v>170</v>
@@ -3007,7 +3007,7 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20686349832193707</v>
+        <v>0.47466734387143561</v>
       </c>
       <c r="B48" s="2">
         <v>186</v>
@@ -3028,7 +3028,7 @@
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62995429996228203</v>
+        <v>0.73435250737555546</v>
       </c>
       <c r="B49" s="2">
         <v>119</v>
@@ -3049,7 +3049,7 @@
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9522823102952018E-2</v>
+        <v>0.47159527333649487</v>
       </c>
       <c r="B50" s="2">
         <v>195</v>
@@ -3070,7 +3070,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2277132993732849E-2</v>
+        <v>0.2377112506841943</v>
       </c>
       <c r="B51" s="2">
         <v>153</v>
@@ -3091,7 +3091,7 @@
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6122781017710475E-2</v>
+        <v>0.5249953714102239</v>
       </c>
       <c r="B52" s="2">
         <v>244</v>
@@ -3115,7 +3115,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46006704771403562</v>
+        <v>0.32276408576048554</v>
       </c>
       <c r="B53" s="2">
         <v>215</v>
@@ -3139,7 +3139,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85636397961819732</v>
+        <v>0.3886777755145463</v>
       </c>
       <c r="B54" s="2">
         <v>152</v>
@@ -3163,7 +3163,7 @@
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21282278433868063</v>
+        <v>0.27082278706970009</v>
       </c>
       <c r="B55" s="2">
         <v>64</v>
@@ -3187,7 +3187,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66371355019514411</v>
+        <v>0.48400617829226811</v>
       </c>
       <c r="B56" s="2">
         <v>304</v>
@@ -3208,7 +3208,7 @@
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7623376412316748</v>
+        <v>8.2535655060305468E-2</v>
       </c>
       <c r="B57" s="2">
         <v>260</v>
@@ -3232,7 +3232,7 @@
     <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83526315484163338</v>
+        <v>0.90884553436472071</v>
       </c>
       <c r="B58" s="2">
         <v>111</v>
@@ -3256,7 +3256,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84702740502756158</v>
+        <v>0.65378111244864801</v>
       </c>
       <c r="B59" s="2">
         <v>160</v>
@@ -3277,7 +3277,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81896714046232677</v>
+        <v>1.20136326667869E-2</v>
       </c>
       <c r="B60" s="2">
         <v>179</v>
@@ -3298,7 +3298,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25193276081291116</v>
+        <v>0.98353781400063123</v>
       </c>
       <c r="B61" s="2">
         <v>212</v>
@@ -3322,7 +3322,7 @@
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38628496967008918</v>
+        <v>0.50053756666834426</v>
       </c>
       <c r="B62" s="2">
         <v>63</v>
@@ -3343,7 +3343,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1680360344171018</v>
+        <v>0.33309399708271936</v>
       </c>
       <c r="B63" s="2">
         <v>114</v>
@@ -3370,7 +3370,7 @@
     <row r="64" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11844003753428278</v>
+        <v>0.3624664302842574</v>
       </c>
       <c r="B64" s="2">
         <v>128</v>
@@ -3391,7 +3391,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17500960391225573</v>
+        <v>0.74755200437181601</v>
       </c>
       <c r="B65" s="2">
         <v>217</v>
@@ -3415,7 +3415,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.90258335195490325</v>
+        <v>0.80028488898000072</v>
       </c>
       <c r="B66" s="2">
         <v>169</v>
@@ -3439,7 +3439,7 @@
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40976221945018942</v>
+        <v>0.95623399599799497</v>
       </c>
       <c r="B67" s="2">
         <v>118</v>
@@ -3463,7 +3463,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51670506610432398</v>
+        <v>0.74164113998360215</v>
       </c>
       <c r="B68" s="2">
         <v>329</v>
@@ -3484,7 +3484,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68234288709190838</v>
+        <v>0.69645338662783007</v>
       </c>
       <c r="B69" s="2">
         <v>308</v>
@@ -3508,7 +3508,7 @@
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80829654456460964</v>
+        <v>0.74997849668515304</v>
       </c>
       <c r="B70" s="2">
         <v>279</v>
@@ -3532,7 +3532,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31182121770032989</v>
+        <v>0.5216186868155881</v>
       </c>
       <c r="B71" s="2">
         <v>265</v>
@@ -3553,7 +3553,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54120531454737797</v>
+        <v>0.59727037509033476</v>
       </c>
       <c r="B72" s="2">
         <v>161</v>
@@ -3574,7 +3574,7 @@
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2974660393095765E-2</v>
+        <v>0.3220965683879411</v>
       </c>
       <c r="B73" s="2">
         <v>274</v>
@@ -3598,7 +3598,7 @@
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3948211930070441</v>
+        <v>0.91281837994160908</v>
       </c>
       <c r="B74" s="2">
         <v>183</v>
@@ -3625,7 +3625,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8425590172375372E-2</v>
+        <v>5.7063890429515318E-2</v>
       </c>
       <c r="B75" s="2">
         <v>125</v>
@@ -3652,7 +3652,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6014752413718218E-2</v>
+        <v>0.86555860290053244</v>
       </c>
       <c r="B76" s="2">
         <v>290</v>
@@ -3676,7 +3676,7 @@
     <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93565742763384974</v>
+        <v>0.95966000802309348</v>
       </c>
       <c r="B77" s="2">
         <v>294</v>
@@ -3700,7 +3700,7 @@
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34838035645789944</v>
+        <v>0.49902700752798601</v>
       </c>
       <c r="B78" s="2">
         <v>238</v>
@@ -3724,7 +3724,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96760092547254983</v>
+        <v>9.8796690637643292E-2</v>
       </c>
       <c r="B79" s="2">
         <v>163</v>
@@ -3751,7 +3751,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8686016857289616E-2</v>
+        <v>0.30417435222049916</v>
       </c>
       <c r="B80" s="2">
         <v>318</v>
@@ -3772,7 +3772,7 @@
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85964312529907916</v>
+        <v>0.95532642531600764</v>
       </c>
       <c r="B81" s="2">
         <v>89</v>
@@ -3799,7 +3799,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8981277679731074E-2</v>
+        <v>0.47409745106837009</v>
       </c>
       <c r="B82" s="2">
         <v>258</v>
@@ -3823,7 +3823,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18727140535921871</v>
+        <v>0.51097651629031327</v>
       </c>
       <c r="B83" s="2">
         <v>159</v>
@@ -3847,7 +3847,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47634213045874985</v>
+        <v>0.27158952284903559</v>
       </c>
       <c r="B84" s="2">
         <v>321</v>
@@ -3871,7 +3871,7 @@
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50669370762133614</v>
+        <v>0.66851608362858517</v>
       </c>
       <c r="B85" s="2">
         <v>168</v>
@@ -3895,7 +3895,7 @@
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49778307084727036</v>
+        <v>0.61463433800132794</v>
       </c>
       <c r="B86" s="2">
         <v>133</v>
@@ -3919,7 +3919,7 @@
     <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84430331649590284</v>
+        <v>2.8899156574302864E-2</v>
       </c>
       <c r="B87" s="2">
         <v>29</v>
@@ -3943,7 +3943,7 @@
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25814868031485472</v>
+        <v>0.25838168882441925</v>
       </c>
       <c r="B88" s="2">
         <v>205</v>
@@ -3964,7 +3964,7 @@
     <row r="89" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57812965969668484</v>
+        <v>0.39970699888078332</v>
       </c>
       <c r="B89" s="2">
         <v>102</v>
@@ -3988,7 +3988,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24956036809224524</v>
+        <v>6.3802920986737677E-2</v>
       </c>
       <c r="B90" s="2">
         <v>194</v>
@@ -4015,7 +4015,7 @@
     <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.365028704580175</v>
+        <v>0.50221080218316438</v>
       </c>
       <c r="B91" s="2">
         <v>295</v>
@@ -4039,7 +4039,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55235261802880731</v>
+        <v>0.56577506397871569</v>
       </c>
       <c r="B92" s="2">
         <v>293</v>
@@ -4060,7 +4060,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81172379359708235</v>
+        <v>7.7513182155652727E-2</v>
       </c>
       <c r="B93" s="2">
         <v>247</v>
@@ -4081,7 +4081,7 @@
     <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10137694446005452</v>
+        <v>0.80772124925726996</v>
       </c>
       <c r="B94" s="2">
         <v>235</v>
@@ -4102,7 +4102,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47262274620571776</v>
+        <v>7.9501214536188303E-2</v>
       </c>
       <c r="B95" s="2">
         <v>30</v>
@@ -4126,7 +4126,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40938503978457152</v>
+        <v>0.58848672036820049</v>
       </c>
       <c r="B96" s="2">
         <v>323</v>
@@ -4153,7 +4153,7 @@
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13271079680920594</v>
+        <v>0.77269309234686623</v>
       </c>
       <c r="B97" s="2">
         <v>176</v>
@@ -4174,7 +4174,7 @@
     <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90308660201140867</v>
+        <v>0.15976317675613072</v>
       </c>
       <c r="B98" s="2">
         <v>143</v>
@@ -4198,7 +4198,7 @@
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52734225571313931</v>
+        <v>5.1302299204085688E-2</v>
       </c>
       <c r="B99" s="2">
         <v>220</v>
@@ -4222,7 +4222,7 @@
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34793553294667345</v>
+        <v>0.34594875047332774</v>
       </c>
       <c r="B100" s="2">
         <v>240</v>
@@ -4246,7 +4246,7 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81333096197100929</v>
+        <v>0.8632664047711518</v>
       </c>
       <c r="B101" s="2">
         <v>316</v>
@@ -4270,7 +4270,7 @@
     <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23477164959506003</v>
+        <v>0.94343236234957273</v>
       </c>
       <c r="B102" s="2">
         <v>35</v>
@@ -4294,7 +4294,7 @@
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84933591359114613</v>
+        <v>0.75957594286128549</v>
       </c>
       <c r="B103" s="2">
         <v>193</v>
@@ -4318,7 +4318,7 @@
     <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46810931499806174</v>
+        <v>0.72160708364757176</v>
       </c>
       <c r="B104" s="2">
         <v>262</v>
@@ -4342,7 +4342,7 @@
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76358740820938054</v>
+        <v>0.19416801423312635</v>
       </c>
       <c r="B105" s="2">
         <v>58</v>
@@ -4366,7 +4366,7 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76610246263058823</v>
+        <v>0.28329167699786784</v>
       </c>
       <c r="B106" s="2">
         <v>250</v>
@@ -4387,7 +4387,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91122602818643095</v>
+        <v>0.52992035326145726</v>
       </c>
       <c r="B107" s="2">
         <v>174</v>
@@ -4411,7 +4411,7 @@
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45684547067072567</v>
+        <v>0.46185372646568101</v>
       </c>
       <c r="B108" s="2">
         <v>182</v>
@@ -4438,7 +4438,7 @@
     <row r="109" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72047652981805888</v>
+        <v>0.18170195545108458</v>
       </c>
       <c r="B109" s="2">
         <v>95</v>
@@ -4459,7 +4459,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63840225757336189</v>
+        <v>0.1852973573593234</v>
       </c>
       <c r="B110" s="2">
         <v>257</v>
@@ -4483,7 +4483,7 @@
     <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6426313269654065E-2</v>
+        <v>0.33476720571904084</v>
       </c>
       <c r="B111" s="2">
         <v>204</v>
@@ -4507,7 +4507,7 @@
     <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2898334262364934E-2</v>
+        <v>0.78499806287367291</v>
       </c>
       <c r="B112" s="2">
         <v>326</v>
@@ -4531,7 +4531,7 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.710700231801358</v>
+        <v>0.96275085078386269</v>
       </c>
       <c r="B113" s="2">
         <v>322</v>
@@ -4552,7 +4552,7 @@
     <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5954854793577613</v>
+        <v>0.3415425416572514</v>
       </c>
       <c r="B114" s="2">
         <v>85</v>
@@ -4573,7 +4573,7 @@
     <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22866877813200026</v>
+        <v>0.52992993615067052</v>
       </c>
       <c r="B115" s="2">
         <v>243</v>
@@ -4597,7 +4597,7 @@
     <row r="116" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41740355592353928</v>
+        <v>0.83727058297717849</v>
       </c>
       <c r="B116" s="2">
         <v>76</v>
@@ -4621,7 +4621,7 @@
     <row r="117" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63989475903445003</v>
+        <v>0.61056708647565983</v>
       </c>
       <c r="B117" s="2">
         <v>276</v>
@@ -4645,7 +4645,7 @@
     <row r="118" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92951315663027856</v>
+        <v>0.28591651322456213</v>
       </c>
       <c r="B118" s="2">
         <v>225</v>
@@ -4669,7 +4669,7 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8182385153678813E-2</v>
+        <v>0.29193776040000685</v>
       </c>
       <c r="B119" s="2">
         <v>48</v>
@@ -4690,7 +4690,7 @@
     <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10677720308896255</v>
+        <v>0.21153133300136107</v>
       </c>
       <c r="B120" s="2">
         <v>92</v>
@@ -4711,7 +4711,7 @@
     <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60721487956449416</v>
+        <v>0.44178565398509084</v>
       </c>
       <c r="B121" s="2">
         <v>120</v>
@@ -4732,7 +4732,7 @@
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6161584056810812E-3</v>
+        <v>0.36857415357788392</v>
       </c>
       <c r="B122" s="2">
         <v>155</v>
@@ -4756,7 +4756,7 @@
     <row r="123" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47017113458465964</v>
+        <v>0.72631536172679434</v>
       </c>
       <c r="B123" s="2">
         <v>141</v>
@@ -4780,7 +4780,7 @@
     <row r="124" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91352059320514978</v>
+        <v>0.47753285900467823</v>
       </c>
       <c r="B124" s="2">
         <v>327</v>
@@ -4804,7 +4804,7 @@
     <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60380434317239495</v>
+        <v>0.83456871699108293</v>
       </c>
       <c r="B125" s="2">
         <v>91</v>
@@ -4825,7 +4825,7 @@
     <row r="126" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32868716311785451</v>
+        <v>0.44242495205482968</v>
       </c>
       <c r="B126" s="2">
         <v>239</v>
@@ -4849,7 +4849,7 @@
     <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16498293287837573</v>
+        <v>0.3113973227298551</v>
       </c>
       <c r="B127" s="2">
         <v>79</v>
@@ -4870,7 +4870,7 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45843035303217761</v>
+        <v>0.61227234509701367</v>
       </c>
       <c r="B128" s="2">
         <v>222</v>
@@ -4891,7 +4891,7 @@
     <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7146714162271609</v>
+        <v>0.6906897327016619</v>
       </c>
       <c r="B129" s="2">
         <v>199</v>
@@ -4915,7 +4915,7 @@
     <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.13515366009823693</v>
+        <v>2.9568324928758161E-3</v>
       </c>
       <c r="B130" s="2">
         <v>192</v>
@@ -4942,7 +4942,7 @@
     <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65187614193926113</v>
+        <v>0.6458426868469731</v>
       </c>
       <c r="B131" s="2">
         <v>42</v>
@@ -4966,7 +4966,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46906239629733337</v>
+        <v>9.0226067083747141E-2</v>
       </c>
       <c r="B132" s="2">
         <v>251</v>
@@ -4990,7 +4990,7 @@
     <row r="133" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9389433843536823</v>
+        <v>0.52068081242516251</v>
       </c>
       <c r="B133" s="2">
         <v>37</v>
@@ -5014,7 +5014,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95940513768893398</v>
+        <v>0.20214657917911005</v>
       </c>
       <c r="B134" s="2">
         <v>144</v>
@@ -5038,7 +5038,7 @@
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3572837373627826E-2</v>
+        <v>0.51826739157528268</v>
       </c>
       <c r="B135" s="2">
         <v>138</v>
@@ -5062,7 +5062,7 @@
     <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65701919333400394</v>
+        <v>0.70410621713657096</v>
       </c>
       <c r="B136" s="2">
         <v>23</v>
@@ -5083,7 +5083,7 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60473515943789946</v>
+        <v>0.65537995263108684</v>
       </c>
       <c r="B137" s="2">
         <v>123</v>
@@ -5104,7 +5104,7 @@
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92278515463359712</v>
+        <v>0.37397185438428837</v>
       </c>
       <c r="B138" s="2">
         <v>209</v>
@@ -5125,7 +5125,7 @@
     <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26033281763723692</v>
+        <v>0.22714883020802668</v>
       </c>
       <c r="B139" s="2">
         <v>309</v>
@@ -5149,7 +5149,7 @@
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95068869381833476</v>
+        <v>9.5302577257286081E-2</v>
       </c>
       <c r="B140" s="2">
         <v>55</v>
@@ -5173,7 +5173,7 @@
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7139855178786716E-2</v>
+        <v>0.39381868355664262</v>
       </c>
       <c r="B141" s="2">
         <v>115</v>
@@ -5194,7 +5194,7 @@
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82784350821552777</v>
+        <v>0.33106310382478932</v>
       </c>
       <c r="B142" s="2">
         <v>275</v>
@@ -5218,7 +5218,7 @@
     <row r="143" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47108356256083106</v>
+        <v>0.64190822218134946</v>
       </c>
       <c r="B143" s="2">
         <v>312</v>
@@ -5242,7 +5242,7 @@
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72332277718348703</v>
+        <v>0.6803293813097131</v>
       </c>
       <c r="B144" s="2">
         <v>86</v>
@@ -5266,7 +5266,7 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15269514679421636</v>
+        <v>0.78233652260448816</v>
       </c>
       <c r="B145" s="2">
         <v>154</v>
@@ -5290,7 +5290,7 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31695251089082488</v>
+        <v>0.85623261080094304</v>
       </c>
       <c r="B146" s="2">
         <v>206</v>
@@ -5314,7 +5314,7 @@
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6256626171625062E-2</v>
+        <v>0.72790145520802263</v>
       </c>
       <c r="B147" s="2">
         <v>227</v>
@@ -5338,7 +5338,7 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53133113269906029</v>
+        <v>0.76449127433398356</v>
       </c>
       <c r="B148" s="2">
         <v>284</v>
@@ -5362,7 +5362,7 @@
     <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30623816120179803</v>
+        <v>4.6604161428327573E-2</v>
       </c>
       <c r="B149" s="2">
         <v>300</v>
@@ -5383,7 +5383,7 @@
     <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55263253705964011</v>
+        <v>0.70046328609608166</v>
       </c>
       <c r="B150" s="2">
         <v>281</v>
@@ -5404,7 +5404,7 @@
     <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59609228690736926</v>
+        <v>6.8191771493470998E-2</v>
       </c>
       <c r="B151" s="2">
         <v>303</v>
@@ -5428,7 +5428,7 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97909742155410562</v>
+        <v>0.29907886903028247</v>
       </c>
       <c r="B152" s="2">
         <v>166</v>
@@ -5452,7 +5452,7 @@
     <row r="153" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7483438955669284E-2</v>
+        <v>0.28141390319925241</v>
       </c>
       <c r="B153" s="2">
         <v>158</v>
@@ -5479,7 +5479,7 @@
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80532120001318674</v>
+        <v>6.2969853137931464E-2</v>
       </c>
       <c r="B154" s="2">
         <v>51</v>
@@ -5506,7 +5506,7 @@
     <row r="155" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76119988804718941</v>
+        <v>0.54736354155818379</v>
       </c>
       <c r="B155" s="2">
         <v>75</v>
@@ -5530,7 +5530,7 @@
     <row r="156" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36285751948205025</v>
+        <v>0.64209967439527071</v>
       </c>
       <c r="B156" s="2">
         <v>77</v>
@@ -5554,7 +5554,7 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39749623679363943</v>
+        <v>0.56138387185375571</v>
       </c>
       <c r="B157" s="2">
         <v>214</v>
@@ -5578,7 +5578,7 @@
     <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1528761064952372</v>
+        <v>0.28152274441234759</v>
       </c>
       <c r="B158" s="2">
         <v>136</v>
@@ -5599,7 +5599,7 @@
     <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20827753137523031</v>
+        <v>0.10739657368943079</v>
       </c>
       <c r="B159" s="2">
         <v>142</v>
@@ -5623,7 +5623,7 @@
     <row r="160" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81379576431676959</v>
+        <v>0.57281475540086957</v>
       </c>
       <c r="B160" s="2">
         <v>60</v>
@@ -5647,7 +5647,7 @@
     <row r="161" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98130170520372428</v>
+        <v>0.53077746347559973</v>
       </c>
       <c r="B161" s="2">
         <v>228</v>
@@ -5668,7 +5668,7 @@
     <row r="162" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58348741896240475</v>
+        <v>0.6585232384066726</v>
       </c>
       <c r="B162" s="2">
         <v>100</v>
@@ -5692,7 +5692,7 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60317524989280225</v>
+        <v>0.86264371264043127</v>
       </c>
       <c r="B163" s="2">
         <v>282</v>
@@ -5713,7 +5713,7 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94175086624377702</v>
+        <v>0.60242451657324647</v>
       </c>
       <c r="B164" s="2">
         <v>173</v>
@@ -5734,7 +5734,7 @@
     <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62048542549725705</v>
+        <v>0.7974504537449737</v>
       </c>
       <c r="B165" s="2">
         <v>236</v>
@@ -5761,7 +5761,7 @@
     <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56313050230268047</v>
+        <v>0.81857659839724661</v>
       </c>
       <c r="B166" s="2">
         <v>232</v>
@@ -5788,7 +5788,7 @@
     <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16920650640224921</v>
+        <v>0.28857191164572737</v>
       </c>
       <c r="B167" s="2">
         <v>208</v>
@@ -5812,7 +5812,7 @@
     <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99409912808418655</v>
+        <v>0.68288846292565664</v>
       </c>
       <c r="B168" s="2">
         <v>277</v>
@@ -5836,7 +5836,7 @@
     <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.434239492378758E-2</v>
+        <v>0.49738291946129687</v>
       </c>
       <c r="B169" s="2">
         <v>301</v>
@@ -5860,7 +5860,7 @@
     <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66962246487008226</v>
+        <v>0.97984773212453813</v>
       </c>
       <c r="B170" s="2">
         <v>219</v>
@@ -5881,7 +5881,7 @@
     <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0956158254635509E-2</v>
+        <v>1.8210262252426057E-2</v>
       </c>
       <c r="B171" s="2">
         <v>164</v>
@@ -5905,7 +5905,7 @@
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57333824184569848</v>
+        <v>0.89135582026874627</v>
       </c>
       <c r="B172" s="2">
         <v>53</v>
@@ -5926,7 +5926,7 @@
     <row r="173" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12843523546365121</v>
+        <v>0.61763179829818748</v>
       </c>
       <c r="B173" s="2">
         <v>190</v>
@@ -5953,7 +5953,7 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14505286505333093</v>
+        <v>0.44850684008140973</v>
       </c>
       <c r="B174" s="2">
         <v>39</v>
@@ -5977,7 +5977,7 @@
     <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17081221163198979</v>
+        <v>0.43128536872619128</v>
       </c>
       <c r="B175" s="2">
         <v>223</v>
@@ -5998,7 +5998,7 @@
     <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3610817974451894E-2</v>
+        <v>0.37315673590160681</v>
       </c>
       <c r="B176" s="2">
         <v>231</v>
@@ -6022,7 +6022,7 @@
     <row r="177" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89410832593651046</v>
+        <v>0.73691396677571208</v>
       </c>
       <c r="B177" s="2">
         <v>25</v>
@@ -6046,7 +6046,7 @@
     <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90430908504468099</v>
+        <v>0.19619642479177901</v>
       </c>
       <c r="B178" s="2">
         <v>297</v>
@@ -6067,7 +6067,7 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81174175353578992</v>
+        <v>0.10270488772779807</v>
       </c>
       <c r="B179" s="2">
         <v>38</v>
@@ -6088,7 +6088,7 @@
     <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.974457467380792E-3</v>
+        <v>0.43819004339713652</v>
       </c>
       <c r="B180" s="2">
         <v>305</v>
@@ -6112,7 +6112,7 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6432595650527606E-2</v>
+        <v>0.85219480588229368</v>
       </c>
       <c r="B181" s="2">
         <v>148</v>
@@ -6136,7 +6136,7 @@
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42055881761571579</v>
+        <v>0.16096251422168384</v>
       </c>
       <c r="B182" s="2">
         <v>263</v>
@@ -6160,7 +6160,7 @@
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16229098361142713</v>
+        <v>0.6732604847877155</v>
       </c>
       <c r="B183" s="2">
         <v>122</v>
@@ -6181,7 +6181,7 @@
     <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17792414161733372</v>
+        <v>0.9711960122098694</v>
       </c>
       <c r="B184" s="2">
         <v>268</v>
@@ -6205,7 +6205,7 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74202348245721261</v>
+        <v>0.13871754073133746</v>
       </c>
       <c r="B185" s="2">
         <v>109</v>
@@ -6229,7 +6229,7 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76905249564755029</v>
+        <v>0.12544917118132415</v>
       </c>
       <c r="B186" s="2">
         <v>242</v>
@@ -6253,7 +6253,7 @@
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63974783665496815</v>
+        <v>0.70774180728144331</v>
       </c>
       <c r="B187" s="2">
         <v>270</v>
@@ -6277,7 +6277,7 @@
     <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98707515405589841</v>
+        <v>8.0102167276500658E-2</v>
       </c>
       <c r="B188" s="2">
         <v>184</v>
@@ -6298,7 +6298,7 @@
     <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73380008702771105</v>
+        <v>0.16505111289937813</v>
       </c>
       <c r="B189" s="2">
         <v>298</v>
@@ -6322,7 +6322,7 @@
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97979488282970206</v>
+        <v>0.66970469404055399</v>
       </c>
       <c r="B190" s="2">
         <v>96</v>
@@ -6346,7 +6346,7 @@
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53284038035235992</v>
+        <v>0.32007118036080517</v>
       </c>
       <c r="B191" s="2">
         <v>134</v>
@@ -6370,7 +6370,7 @@
     <row r="192" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71665170497808761</v>
+        <v>0.75018341216449214</v>
       </c>
       <c r="B192" s="2">
         <v>237</v>
@@ -6397,7 +6397,7 @@
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69743601993193727</v>
+        <v>0.63331716472747313</v>
       </c>
       <c r="B193" s="2">
         <v>315</v>
@@ -6418,7 +6418,7 @@
     <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.79090163604188402</v>
+        <v>0.7920221576804386</v>
       </c>
       <c r="B194" s="2">
         <v>32</v>
@@ -6442,7 +6442,7 @@
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96027699989090054</v>
+        <v>4.5992073611615614E-2</v>
       </c>
       <c r="B195" s="2">
         <v>150</v>
@@ -6466,7 +6466,7 @@
     <row r="196" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62996481702266582</v>
+        <v>0.53689121364176084</v>
       </c>
       <c r="B196" s="2">
         <v>54</v>
@@ -6487,7 +6487,7 @@
     <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86714629216995931</v>
+        <v>0.13776308256649361</v>
       </c>
       <c r="B197" s="2">
         <v>267</v>
@@ -6508,7 +6508,7 @@
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24337726729474196</v>
+        <v>0.5032426801929617</v>
       </c>
       <c r="B198" s="2">
         <v>47</v>
@@ -6535,7 +6535,7 @@
     <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44934290398875587</v>
+        <v>0.20254740279038741</v>
       </c>
       <c r="B199" s="2">
         <v>140</v>
@@ -6559,7 +6559,7 @@
     <row r="200" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.540538994885576</v>
+        <v>0.33356693421124117</v>
       </c>
       <c r="B200" s="2">
         <v>203</v>
@@ -6589,7 +6589,7 @@
     <row r="201" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23685080271480063</v>
+        <v>0.19370607005329898</v>
       </c>
       <c r="B201" s="2">
         <v>230</v>
@@ -6613,7 +6613,7 @@
     <row r="202" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97074947012742474</v>
+        <v>0.15917216668324152</v>
       </c>
       <c r="B202" s="2">
         <v>196</v>
@@ -6637,7 +6637,7 @@
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3622613671183132E-2</v>
+        <v>0.58965715325067047</v>
       </c>
       <c r="B203" s="2">
         <v>146</v>
@@ -6658,7 +6658,7 @@
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66075697321153848</v>
+        <v>0.54667618968067033</v>
       </c>
       <c r="B204" s="2">
         <v>151</v>
@@ -6682,7 +6682,7 @@
     <row r="205" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21982434185991462</v>
+        <v>0.1350045375618949</v>
       </c>
       <c r="B205" s="2">
         <v>36</v>
@@ -6706,7 +6706,7 @@
     <row r="206" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31231145368521018</v>
+        <v>0.99970565057164384</v>
       </c>
       <c r="B206" s="2">
         <v>59</v>
@@ -6730,7 +6730,7 @@
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96020992883387113</v>
+        <v>0.29002935014019249</v>
       </c>
       <c r="B207" s="2">
         <v>180</v>
@@ -6754,7 +6754,7 @@
     <row r="208" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7100733875357736E-2</v>
+        <v>0.71154239828738963</v>
       </c>
       <c r="B208" s="2">
         <v>210</v>
@@ -6775,7 +6775,7 @@
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19015478299808297</v>
+        <v>0.81828542677645499</v>
       </c>
       <c r="B209" s="2">
         <v>218</v>
@@ -6799,7 +6799,7 @@
     <row r="210" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47671083265157121</v>
+        <v>0.65342912117536034</v>
       </c>
       <c r="B210" s="2">
         <v>28</v>
@@ -6823,7 +6823,7 @@
     <row r="211" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22327156563506223</v>
+        <v>0.51798378678236656</v>
       </c>
       <c r="B211" s="2">
         <v>73</v>
@@ -6847,7 +6847,7 @@
     <row r="212" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11806592124041415</v>
+        <v>0.93465232073883908</v>
       </c>
       <c r="B212" s="2">
         <v>278</v>
@@ -6871,7 +6871,7 @@
     <row r="213" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1317061243323616E-2</v>
+        <v>0.1444999326756754</v>
       </c>
       <c r="B213" s="2">
         <v>264</v>
@@ -6892,7 +6892,7 @@
     <row r="214" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10704591064975499</v>
+        <v>0.31760507714372654</v>
       </c>
       <c r="B214" s="2">
         <v>74</v>
@@ -6916,7 +6916,7 @@
     <row r="215" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85838503476842554</v>
+        <v>5.1282080276867648E-3</v>
       </c>
       <c r="B215" s="2">
         <v>104</v>
@@ -6940,7 +6940,7 @@
     <row r="216" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57956849372928843</v>
+        <v>0.964795740425479</v>
       </c>
       <c r="B216" s="2">
         <v>61</v>
@@ -6961,7 +6961,7 @@
     <row r="217" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48632020502934359</v>
+        <v>0.94561520170855229</v>
       </c>
       <c r="B217" s="2">
         <v>296</v>
@@ -6985,7 +6985,7 @@
     <row r="218" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91587959456687351</v>
+        <v>0.89660632037990806</v>
       </c>
       <c r="B218" s="2">
         <v>99</v>
@@ -7009,7 +7009,7 @@
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40654034100750358</v>
+        <v>0.49085955424578931</v>
       </c>
       <c r="B219" s="2">
         <v>266</v>
@@ -7036,7 +7036,7 @@
     <row r="220" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81650766189576252</v>
+        <v>0.75781850805735429</v>
       </c>
       <c r="B220" s="2">
         <v>106</v>
@@ -7060,7 +7060,7 @@
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33801815382847455</v>
+        <v>7.5359729364696482E-2</v>
       </c>
       <c r="B221" s="2">
         <v>49</v>
@@ -7084,7 +7084,7 @@
     <row r="222" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72965245349081698</v>
+        <v>0.76543382106976532</v>
       </c>
       <c r="B222" s="2">
         <v>310</v>
@@ -7105,7 +7105,7 @@
     <row r="223" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0291252211427708E-2</v>
+        <v>0.56123105675412466</v>
       </c>
       <c r="B223" s="2">
         <v>288</v>
@@ -7129,7 +7129,7 @@
     <row r="224" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83297977861282513</v>
+        <v>0.52069207049958721</v>
       </c>
       <c r="B224" s="2">
         <v>31</v>
@@ -7159,7 +7159,7 @@
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13572001562156155</v>
+        <v>0.44362021900865523</v>
       </c>
       <c r="B225" s="2">
         <v>291</v>
@@ -7183,7 +7183,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68193469368825355</v>
+        <v>3.1530141125088451E-2</v>
       </c>
       <c r="B226" s="2">
         <v>124</v>
@@ -7204,7 +7204,7 @@
     <row r="227" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3197549561407248</v>
+        <v>0.32214627146060215</v>
       </c>
       <c r="B227" s="2">
         <v>26</v>
@@ -7225,7 +7225,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47934900032193895</v>
+        <v>0.763869910703314</v>
       </c>
       <c r="B228" s="2">
         <v>70</v>
@@ -7249,7 +7249,7 @@
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.122232359960043E-2</v>
+        <v>0.59747121184011787</v>
       </c>
       <c r="B229" s="2">
         <v>156</v>
@@ -7273,7 +7273,7 @@
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1988970289152151</v>
+        <v>0.64940038026507219</v>
       </c>
       <c r="B230" s="2">
         <v>46</v>
@@ -7297,7 +7297,7 @@
     <row r="231" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37720861770378677</v>
+        <v>0.57499229962828391</v>
       </c>
       <c r="B231" s="2">
         <v>24</v>
@@ -7318,7 +7318,7 @@
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78582286154672576</v>
+        <v>7.8385125475676332E-2</v>
       </c>
       <c r="B232" s="2">
         <v>121</v>
@@ -7339,7 +7339,7 @@
     <row r="233" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10386123037435246</v>
+        <v>0.69622406837027673</v>
       </c>
       <c r="B233" s="2">
         <v>311</v>
@@ -7363,7 +7363,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86257298634020274</v>
+        <v>0.65639759331986014</v>
       </c>
       <c r="B234" s="2">
         <v>254</v>
@@ -7384,7 +7384,7 @@
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1777468340416308E-2</v>
+        <v>0.26611702989721386</v>
       </c>
       <c r="B235" s="2">
         <v>52</v>
@@ -7408,7 +7408,7 @@
     <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26726475917309833</v>
+        <v>0.26105508549072765</v>
       </c>
       <c r="B236" s="2">
         <v>66</v>
@@ -7429,7 +7429,7 @@
     <row r="237" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97724955582814577</v>
+        <v>0.28580521417835547</v>
       </c>
       <c r="B237" s="2">
         <v>27</v>
@@ -7453,7 +7453,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16499977615217842</v>
+        <v>0.3682188765560086</v>
       </c>
       <c r="B238" s="2">
         <v>314</v>
@@ -7477,7 +7477,7 @@
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82106759474656044</v>
+        <v>0.55911754995780083</v>
       </c>
       <c r="B239" s="2">
         <v>185</v>
@@ -7501,7 +7501,7 @@
     <row r="240" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93782960064470633</v>
+        <v>0.83819606648852951</v>
       </c>
       <c r="B240" s="2">
         <v>191</v>
@@ -7528,7 +7528,7 @@
     <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26628650189753511</v>
+        <v>0.30343472889156564</v>
       </c>
       <c r="B241" s="2">
         <v>84</v>
@@ -7552,7 +7552,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42337822062051311</v>
+        <v>0.46239026726434418</v>
       </c>
       <c r="B242" s="2">
         <v>181</v>
@@ -7576,7 +7576,7 @@
     <row r="243" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45390708233701571</v>
+        <v>0.35123084341609478</v>
       </c>
       <c r="B243" s="2">
         <v>245</v>
@@ -7597,7 +7597,7 @@
     <row r="244" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28145708480809306</v>
+        <v>0.40979486542686183</v>
       </c>
       <c r="B244" s="2">
         <v>280</v>
@@ -7621,7 +7621,7 @@
     <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46282695600832979</v>
+        <v>0.87054422781278207</v>
       </c>
       <c r="B245" s="2">
         <v>273</v>
@@ -7648,7 +7648,7 @@
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50201475190439959</v>
+        <v>0.52846113743062062</v>
       </c>
       <c r="B246" s="2">
         <v>65</v>
@@ -7672,7 +7672,7 @@
     <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4253796611330367E-2</v>
+        <v>0.31037739430809175</v>
       </c>
       <c r="B247" s="2">
         <v>45</v>
@@ -7699,7 +7699,7 @@
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1741460643916279E-2</v>
+        <v>0.79545950390872477</v>
       </c>
       <c r="B248" s="2">
         <v>82</v>
@@ -7723,7 +7723,7 @@
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99025499872939249</v>
+        <v>0.64167226615282136</v>
       </c>
       <c r="B249" s="2">
         <v>108</v>
@@ -7744,7 +7744,7 @@
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69133948881183582</v>
+        <v>0.53606613171571404</v>
       </c>
       <c r="B250" s="2">
         <v>287</v>
@@ -7765,7 +7765,7 @@
     <row r="251" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98727938018391426</v>
+        <v>0.67264298871039951</v>
       </c>
       <c r="B251" s="2">
         <v>34</v>
@@ -7789,7 +7789,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81523592818261958</v>
+        <v>0.69626810548719598</v>
       </c>
       <c r="B252" s="2">
         <v>246</v>
@@ -7813,7 +7813,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14562231405856585</v>
+        <v>7.6187816867406832E-2</v>
       </c>
       <c r="B253" s="2">
         <v>177</v>
@@ -7834,7 +7834,7 @@
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67183723377234661</v>
+        <v>0.22575685104659571</v>
       </c>
       <c r="B254" s="2">
         <v>253</v>
@@ -7858,7 +7858,7 @@
     <row r="255" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62111698015383388</v>
+        <v>0.42366691753829466</v>
       </c>
       <c r="B255" s="2">
         <v>188</v>
@@ -7885,7 +7885,7 @@
     <row r="256" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99503999823136291</v>
+        <v>0.49845086226133595</v>
       </c>
       <c r="B256" s="2">
         <v>69</v>
@@ -7909,7 +7909,7 @@
     <row r="257" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87181150859484491</v>
+        <v>0.98539802480630789</v>
       </c>
       <c r="B257" s="2">
         <v>103</v>
@@ -7930,7 +7930,7 @@
     <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A310" ca="1" si="4">RAND()</f>
-        <v>0.39649913695200301</v>
+        <v>0.21773464613274918</v>
       </c>
       <c r="B258" s="2">
         <v>221</v>
@@ -7951,7 +7951,7 @@
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80543006003234097</v>
+        <v>0.24615752320478479</v>
       </c>
       <c r="B259" s="2">
         <v>81</v>
@@ -7975,7 +7975,7 @@
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74117690309828543</v>
+        <v>0.67757970611188434</v>
       </c>
       <c r="B260" s="2">
         <v>165</v>
@@ -7999,7 +7999,7 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47477308438597721</v>
+        <v>0.29849869748928148</v>
       </c>
       <c r="B261" s="2">
         <v>147</v>
@@ -8023,7 +8023,7 @@
     <row r="262" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30272858915253498</v>
+        <v>0.46989220128445919</v>
       </c>
       <c r="B262" s="2">
         <v>44</v>
@@ -8047,7 +8047,7 @@
     <row r="263" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7136680695691735</v>
+        <v>0.20851590955827748</v>
       </c>
       <c r="B263" s="2">
         <v>117</v>
@@ -8071,7 +8071,7 @@
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20137749761906054</v>
+        <v>0.30300444815678573</v>
       </c>
       <c r="B264" s="2">
         <v>256</v>
@@ -8092,7 +8092,7 @@
     <row r="265" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64724185498694631</v>
+        <v>0.62590897040220417</v>
       </c>
       <c r="B265" s="2">
         <v>189</v>
@@ -8116,7 +8116,7 @@
     <row r="266" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92248301382973208</v>
+        <v>0.3664741013387488</v>
       </c>
       <c r="B266" s="2">
         <v>229</v>
@@ -8143,7 +8143,7 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50524069342278932</v>
+        <v>0.50507930995762029</v>
       </c>
       <c r="B267" s="2">
         <v>289</v>
@@ -8164,7 +8164,7 @@
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13337528585967839</v>
+        <v>0.48182327088387333</v>
       </c>
       <c r="B268" s="2">
         <v>269</v>
@@ -8191,7 +8191,7 @@
     <row r="269" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56822025914995533</v>
+        <v>0.98607949725793453</v>
       </c>
       <c r="B269" s="2">
         <v>67</v>
@@ -8215,7 +8215,7 @@
     <row r="270" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8094243227760791E-2</v>
+        <v>0.86005456792740598</v>
       </c>
       <c r="B270" s="2">
         <v>132</v>
@@ -8239,7 +8239,7 @@
     <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19657965880624073</v>
+        <v>0.59161224466132645</v>
       </c>
       <c r="B271" s="2">
         <v>302</v>
@@ -8263,7 +8263,7 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6545415145043374E-2</v>
+        <v>0.23871858075140906</v>
       </c>
       <c r="B272" s="2">
         <v>216</v>
@@ -8287,7 +8287,7 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97625229002938285</v>
+        <v>0.46745628599927758</v>
       </c>
       <c r="B273" s="2">
         <v>178</v>
@@ -8311,7 +8311,7 @@
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86262679913365647</v>
+        <v>0.98380955732310904</v>
       </c>
       <c r="B274" s="2">
         <v>198</v>
@@ -8332,7 +8332,7 @@
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84718722827230042</v>
+        <v>0.15383256213199803</v>
       </c>
       <c r="B275" s="2">
         <v>162</v>
@@ -8359,7 +8359,7 @@
     <row r="276" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23680520951925021</v>
+        <v>0.60794566603671008</v>
       </c>
       <c r="B276" s="2">
         <v>94</v>
@@ -8383,7 +8383,7 @@
     <row r="277" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10519433984985405</v>
+        <v>0.16316368090912092</v>
       </c>
       <c r="B277" s="2">
         <v>139</v>
@@ -8407,7 +8407,7 @@
     <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.95691798772128811</v>
+        <v>0.32540909332111789</v>
       </c>
       <c r="B278" s="2">
         <v>330</v>
@@ -8431,7 +8431,7 @@
     <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36648054294312749</v>
+        <v>0.37316123460436357</v>
       </c>
       <c r="B279" s="2">
         <v>87</v>
@@ -8452,7 +8452,7 @@
     <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9648089767108996</v>
+        <v>0.57225739909057183</v>
       </c>
       <c r="B280" s="2">
         <v>78</v>
@@ -8476,7 +8476,7 @@
     <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11589780227677904</v>
+        <v>0.41800759621234895</v>
       </c>
       <c r="B281" s="2">
         <v>234</v>
@@ -8500,7 +8500,7 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3221357587683642</v>
+        <v>0.51282530817557004</v>
       </c>
       <c r="B282" s="2">
         <v>43</v>
@@ -8524,7 +8524,7 @@
     <row r="283" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16105724259252885</v>
+        <v>0.39237087118167391</v>
       </c>
       <c r="B283" s="2">
         <v>126</v>
@@ -8545,7 +8545,7 @@
     <row r="284" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.0361839049885595E-2</v>
+        <v>0.65521249669430148</v>
       </c>
       <c r="B284" s="2">
         <v>200</v>
@@ -8566,7 +8566,7 @@
     <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74160551766866989</v>
+        <v>0.36788282434360231</v>
       </c>
       <c r="B285" s="2">
         <v>88</v>
@@ -8590,7 +8590,7 @@
     <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21445643055114683</v>
+        <v>0.40698637842087138</v>
       </c>
       <c r="B286" s="2">
         <v>241</v>
@@ -8614,7 +8614,7 @@
     <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90583123485030048</v>
+        <v>0.64703901798469077</v>
       </c>
       <c r="B287" s="2">
         <v>255</v>
@@ -8638,7 +8638,7 @@
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1773117138527538E-2</v>
+        <v>0.25996274951165899</v>
       </c>
       <c r="B288" s="2">
         <v>299</v>
@@ -8659,7 +8659,7 @@
     <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56012022518386817</v>
+        <v>0.23069587802962277</v>
       </c>
       <c r="B289" s="2">
         <v>286</v>
@@ -8686,7 +8686,7 @@
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4652043327233959</v>
+        <v>0.14001344725362175</v>
       </c>
       <c r="B290" s="2">
         <v>272</v>
@@ -8710,7 +8710,7 @@
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.00181244139536E-2</v>
+        <v>0.97571338781022654</v>
       </c>
       <c r="B291" s="2">
         <v>116</v>
@@ -8734,7 +8734,7 @@
     <row r="292" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78817966856500743</v>
+        <v>0.29797371896580316</v>
       </c>
       <c r="B292" s="2">
         <v>98</v>
@@ -8758,7 +8758,7 @@
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33731450005816943</v>
+        <v>1.0134226302857985E-2</v>
       </c>
       <c r="B293" s="2">
         <v>259</v>
@@ -8779,7 +8779,7 @@
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17149175924319637</v>
+        <v>0.39266977074086773</v>
       </c>
       <c r="B294" s="2">
         <v>175</v>
@@ -8803,7 +8803,7 @@
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76276778555603142</v>
+        <v>0.52201420078487215</v>
       </c>
       <c r="B295" s="2">
         <v>130</v>
@@ -8827,7 +8827,7 @@
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76403246480608467</v>
+        <v>0.60365873243055534</v>
       </c>
       <c r="B296" s="2">
         <v>285</v>
@@ -8848,7 +8848,7 @@
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65889037513478221</v>
+        <v>0.79828721708481165</v>
       </c>
       <c r="B297" s="2">
         <v>131</v>
@@ -8869,7 +8869,7 @@
     <row r="298" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33847991813108957</v>
+        <v>0.31606906269947266</v>
       </c>
       <c r="B298" s="2">
         <v>93</v>
@@ -8893,7 +8893,7 @@
     <row r="299" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3044693772050575E-2</v>
+        <v>0.68496234888845131</v>
       </c>
       <c r="B299" s="2">
         <v>101</v>
@@ -8917,7 +8917,7 @@
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49150900438949063</v>
+        <v>0.66263431299702102</v>
       </c>
       <c r="B300" s="2">
         <v>137</v>
@@ -8941,7 +8941,7 @@
     <row r="301" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80062564838330186</v>
+        <v>0.32245159061264461</v>
       </c>
       <c r="B301" s="2">
         <v>202</v>
@@ -8965,7 +8965,7 @@
     <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42858956167419648</v>
+        <v>0.33677121660206988</v>
       </c>
       <c r="B302" s="2">
         <v>90</v>
@@ -8986,7 +8986,7 @@
     <row r="303" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60299833410651305</v>
+        <v>0.58319286555189176</v>
       </c>
       <c r="B303" s="2">
         <v>113</v>
@@ -9010,7 +9010,7 @@
     <row r="304" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55423932493210348</v>
+        <v>0.32556884917287021</v>
       </c>
       <c r="B304" s="2">
         <v>68</v>
@@ -9034,7 +9034,7 @@
     <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87135895186726509</v>
+        <v>0.47357554167885696</v>
       </c>
       <c r="B305" s="2">
         <v>80</v>
@@ -9058,7 +9058,7 @@
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73257106637489822</v>
+        <v>0.72936495232844378</v>
       </c>
       <c r="B306" s="2">
         <v>167</v>
@@ -9085,7 +9085,7 @@
     <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65996816237712097</v>
+        <v>3.1504089376124811E-2</v>
       </c>
       <c r="B307" s="2">
         <v>207</v>
@@ -9109,7 +9109,7 @@
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24458065318513578</v>
+        <v>0.45215667435445317</v>
       </c>
       <c r="B308" s="2">
         <v>320</v>
@@ -9130,7 +9130,7 @@
     <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89557335355486234</v>
+        <v>0.26598644584449871</v>
       </c>
       <c r="B309" s="2">
         <v>197</v>
@@ -9154,7 +9154,7 @@
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51776832269328921</v>
+        <v>0.37239906746998019</v>
       </c>
       <c r="B310" s="2">
         <v>213</v>
@@ -9298,8 +9298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="A359" sqref="A311:XFD359"/>
+    <sheetView topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
